--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il4-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il4-Il2rg.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7922663333333334</v>
+        <v>0.2579443333333333</v>
       </c>
       <c r="H2">
-        <v>2.376799</v>
+        <v>0.773833</v>
       </c>
       <c r="I2">
-        <v>0.1759587713796512</v>
+        <v>0.05467096027587241</v>
       </c>
       <c r="J2">
-        <v>0.1759587713796512</v>
+        <v>0.0546709602758724</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.365583</v>
+        <v>35.32109533333334</v>
       </c>
       <c r="N2">
-        <v>73.096749</v>
+        <v>105.963286</v>
       </c>
       <c r="O2">
-        <v>0.3097154004536172</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="P2">
-        <v>0.3097154004536173</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="Q2">
-        <v>19.304031102939</v>
+        <v>9.110876388359779</v>
       </c>
       <c r="R2">
-        <v>173.736279926451</v>
+        <v>81.997887495238</v>
       </c>
       <c r="S2">
-        <v>0.05449714134117516</v>
+        <v>0.02254217977331548</v>
       </c>
       <c r="T2">
-        <v>0.05449714134117517</v>
+        <v>0.02254217977331548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7922663333333334</v>
+        <v>0.2579443333333333</v>
       </c>
       <c r="H3">
-        <v>2.376799</v>
+        <v>0.773833</v>
       </c>
       <c r="I3">
-        <v>0.1759587713796512</v>
+        <v>0.05467096027587241</v>
       </c>
       <c r="J3">
-        <v>0.1759587713796512</v>
+        <v>0.0546709602758724</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.684475</v>
       </c>
       <c r="O3">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="P3">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="Q3">
-        <v>0.9730284995027778</v>
+        <v>0.3167964825194444</v>
       </c>
       <c r="R3">
-        <v>8.757256495525001</v>
+        <v>2.851168342675</v>
       </c>
       <c r="S3">
-        <v>0.00274695328574772</v>
+        <v>0.0007838195752091582</v>
       </c>
       <c r="T3">
-        <v>0.00274695328574772</v>
+        <v>0.0007838195752091581</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7922663333333334</v>
+        <v>0.2579443333333333</v>
       </c>
       <c r="H4">
-        <v>2.376799</v>
+        <v>0.773833</v>
       </c>
       <c r="I4">
-        <v>0.1759587713796512</v>
+        <v>0.05467096027587241</v>
       </c>
       <c r="J4">
-        <v>0.1759587713796512</v>
+        <v>0.0546709602758724</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.595688</v>
+        <v>2.583168333333334</v>
       </c>
       <c r="N4">
-        <v>13.787064</v>
+        <v>7.749505</v>
       </c>
       <c r="O4">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="P4">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="Q4">
-        <v>3.641008880904</v>
+        <v>0.6663136336294445</v>
       </c>
       <c r="R4">
-        <v>32.769079928136</v>
+        <v>5.996822702665</v>
       </c>
       <c r="S4">
-        <v>0.0102789191826825</v>
+        <v>0.001648596806107043</v>
       </c>
       <c r="T4">
-        <v>0.0102789191826825</v>
+        <v>0.001648596806107043</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7922663333333334</v>
+        <v>0.2579443333333333</v>
       </c>
       <c r="H5">
-        <v>2.376799</v>
+        <v>0.773833</v>
       </c>
       <c r="I5">
-        <v>0.1759587713796512</v>
+        <v>0.05467096027587241</v>
       </c>
       <c r="J5">
-        <v>0.1759587713796512</v>
+        <v>0.0546709602758724</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.48145033333333</v>
+        <v>46.53090866666667</v>
       </c>
       <c r="N5">
-        <v>145.444351</v>
+        <v>139.592726</v>
       </c>
       <c r="O5">
-        <v>0.6162566192058891</v>
+        <v>0.5431835104302428</v>
       </c>
       <c r="P5">
-        <v>0.6162566192058893</v>
+        <v>0.5431835104302427</v>
       </c>
       <c r="Q5">
-        <v>38.41022089027211</v>
+        <v>12.00238421541756</v>
       </c>
       <c r="R5">
-        <v>345.691988012449</v>
+        <v>108.021457938758</v>
       </c>
       <c r="S5">
-        <v>0.1084357575700458</v>
+        <v>0.02969636412124073</v>
       </c>
       <c r="T5">
-        <v>0.1084357575700458</v>
+        <v>0.02969636412124072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.233495</v>
       </c>
       <c r="I6">
-        <v>0.4614770208171574</v>
+        <v>0.4403936734732808</v>
       </c>
       <c r="J6">
-        <v>0.4614770208171575</v>
+        <v>0.4403936734732807</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.365583</v>
+        <v>35.32109533333334</v>
       </c>
       <c r="N6">
-        <v>73.096749</v>
+        <v>105.963286</v>
       </c>
       <c r="O6">
-        <v>0.3097154004536172</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="P6">
-        <v>0.3097154004536173</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="Q6">
-        <v>50.62757993419501</v>
+        <v>73.39129038495224</v>
       </c>
       <c r="R6">
-        <v>455.6482194077551</v>
+        <v>660.5216134645701</v>
       </c>
       <c r="S6">
-        <v>0.1429265403025282</v>
+        <v>0.1815851287113152</v>
       </c>
       <c r="T6">
-        <v>0.1429265403025282</v>
+        <v>0.1815851287113152</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.233495</v>
       </c>
       <c r="I7">
-        <v>0.4614770208171574</v>
+        <v>0.4403936734732808</v>
       </c>
       <c r="J7">
-        <v>0.4614770208171575</v>
+        <v>0.4403936734732807</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.684475</v>
       </c>
       <c r="O7">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="P7">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="Q7">
         <v>2.551906276680556</v>
@@ -883,10 +883,10 @@
         <v>22.967156490125</v>
       </c>
       <c r="S7">
-        <v>0.007204277505982618</v>
+        <v>0.006313940350138094</v>
       </c>
       <c r="T7">
-        <v>0.00720427750598262</v>
+        <v>0.006313940350138094</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.233495</v>
       </c>
       <c r="I8">
-        <v>0.4614770208171574</v>
+        <v>0.4403936734732808</v>
       </c>
       <c r="J8">
-        <v>0.4614770208171575</v>
+        <v>0.4403936734732807</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.595688</v>
+        <v>2.583168333333334</v>
       </c>
       <c r="N8">
-        <v>13.787064</v>
+        <v>7.749505</v>
       </c>
       <c r="O8">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="P8">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="Q8">
-        <v>9.549066056520001</v>
+        <v>5.367388963330557</v>
       </c>
       <c r="R8">
-        <v>85.94159450868</v>
+        <v>48.306500669975</v>
       </c>
       <c r="S8">
-        <v>0.02695793431865944</v>
+        <v>0.01328002288334075</v>
       </c>
       <c r="T8">
-        <v>0.02695793431865945</v>
+        <v>0.01328002288334075</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>6.233495</v>
       </c>
       <c r="I9">
-        <v>0.4614770208171574</v>
+        <v>0.4403936734732808</v>
       </c>
       <c r="J9">
-        <v>0.4614770208171575</v>
+        <v>0.4403936734732807</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>48.48145033333333</v>
+        <v>46.53090866666667</v>
       </c>
       <c r="N9">
-        <v>145.444351</v>
+        <v>139.592726</v>
       </c>
       <c r="O9">
-        <v>0.6162566192058891</v>
+        <v>0.5431835104302428</v>
       </c>
       <c r="P9">
-        <v>0.6162566192058893</v>
+        <v>0.5431835104302427</v>
       </c>
       <c r="Q9">
-        <v>100.7362927485272</v>
+        <v>96.68339550637447</v>
       </c>
       <c r="R9">
-        <v>906.626634736745</v>
+        <v>870.15055955737</v>
       </c>
       <c r="S9">
-        <v>0.2843882686899872</v>
+        <v>0.2392145815284868</v>
       </c>
       <c r="T9">
-        <v>0.2843882686899872</v>
+        <v>0.2392145815284867</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7843913333333332</v>
+        <v>2.217259</v>
       </c>
       <c r="H10">
-        <v>2.353174</v>
+        <v>6.651777</v>
       </c>
       <c r="I10">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="J10">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.365583</v>
+        <v>35.32109533333334</v>
       </c>
       <c r="N10">
-        <v>73.096749</v>
+        <v>105.963286</v>
       </c>
       <c r="O10">
-        <v>0.3097154004536172</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="P10">
-        <v>0.3097154004536173</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="Q10">
-        <v>19.112152136814</v>
+        <v>78.31601651769134</v>
       </c>
       <c r="R10">
-        <v>172.009369231326</v>
+        <v>704.8441486592221</v>
       </c>
       <c r="S10">
-        <v>0.05395544851641998</v>
+        <v>0.1937699128184054</v>
       </c>
       <c r="T10">
-        <v>0.05395544851641999</v>
+        <v>0.1937699128184054</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7843913333333332</v>
+        <v>2.217259</v>
       </c>
       <c r="H11">
-        <v>2.353174</v>
+        <v>6.651777</v>
       </c>
       <c r="I11">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="J11">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.684475</v>
       </c>
       <c r="O11">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="P11">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="Q11">
-        <v>0.9633567526277775</v>
+        <v>2.723145118008333</v>
       </c>
       <c r="R11">
-        <v>8.670210773649998</v>
+        <v>24.508306062075</v>
       </c>
       <c r="S11">
-        <v>0.002719649011648062</v>
+        <v>0.00673762042007261</v>
       </c>
       <c r="T11">
-        <v>0.002719649011648062</v>
+        <v>0.00673762042007261</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7843913333333332</v>
+        <v>2.217259</v>
       </c>
       <c r="H12">
-        <v>2.353174</v>
+        <v>6.651777</v>
       </c>
       <c r="I12">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="J12">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.595688</v>
+        <v>2.583168333333334</v>
       </c>
       <c r="N12">
-        <v>13.787064</v>
+        <v>7.749505</v>
       </c>
       <c r="O12">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="P12">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="Q12">
-        <v>3.604817837904</v>
+        <v>5.727553235598333</v>
       </c>
       <c r="R12">
-        <v>32.44336054113599</v>
+        <v>51.547979120385</v>
       </c>
       <c r="S12">
-        <v>0.01017674837829774</v>
+        <v>0.01417114327915234</v>
       </c>
       <c r="T12">
-        <v>0.01017674837829774</v>
+        <v>0.01417114327915233</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7843913333333332</v>
+        <v>2.217259</v>
       </c>
       <c r="H13">
-        <v>2.353174</v>
+        <v>6.651777</v>
       </c>
       <c r="I13">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="J13">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>48.48145033333333</v>
+        <v>46.53090866666667</v>
       </c>
       <c r="N13">
-        <v>145.444351</v>
+        <v>139.592726</v>
       </c>
       <c r="O13">
-        <v>0.6162566192058891</v>
+        <v>0.5431835104302428</v>
       </c>
       <c r="P13">
-        <v>0.6162566192058893</v>
+        <v>0.5431835104302427</v>
       </c>
       <c r="Q13">
-        <v>38.0284294688971</v>
+        <v>103.1710760193447</v>
       </c>
       <c r="R13">
-        <v>342.2558652200739</v>
+        <v>928.539684174102</v>
       </c>
       <c r="S13">
-        <v>0.1073579235703713</v>
+        <v>0.2552664358398961</v>
       </c>
       <c r="T13">
-        <v>0.1073579235703713</v>
+        <v>0.255266435839896</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.8480786666666665</v>
+        <v>0.1650883333333333</v>
       </c>
       <c r="H14">
-        <v>2.544236</v>
+        <v>0.495265</v>
       </c>
       <c r="I14">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="J14">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.365583</v>
+        <v>35.32109533333334</v>
       </c>
       <c r="N14">
-        <v>73.096749</v>
+        <v>105.963286</v>
       </c>
       <c r="O14">
-        <v>0.3097154004536172</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="P14">
-        <v>0.3097154004536173</v>
+        <v>0.4123245624288747</v>
       </c>
       <c r="Q14">
-        <v>20.663931143196</v>
+        <v>5.831100760087779</v>
       </c>
       <c r="R14">
-        <v>185.975380288764</v>
+        <v>52.47990684079001</v>
       </c>
       <c r="S14">
-        <v>0.05833627029349393</v>
+        <v>0.01442734112583864</v>
       </c>
       <c r="T14">
-        <v>0.05833627029349395</v>
+        <v>0.01442734112583863</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.8480786666666665</v>
+        <v>0.1650883333333333</v>
       </c>
       <c r="H15">
-        <v>2.544236</v>
+        <v>0.495265</v>
       </c>
       <c r="I15">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="J15">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.684475</v>
       </c>
       <c r="O15">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="P15">
-        <v>0.0156113461364245</v>
+        <v>0.01433703690686912</v>
       </c>
       <c r="Q15">
-        <v>1.041574881788889</v>
+        <v>0.2027546123194444</v>
       </c>
       <c r="R15">
-        <v>9.374173936099998</v>
+        <v>1.824791510875</v>
       </c>
       <c r="S15">
-        <v>0.002940466333046098</v>
+        <v>0.000501656561449258</v>
       </c>
       <c r="T15">
-        <v>0.002940466333046099</v>
+        <v>0.000501656561449258</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.8480786666666665</v>
+        <v>0.1650883333333333</v>
       </c>
       <c r="H16">
-        <v>2.544236</v>
+        <v>0.495265</v>
       </c>
       <c r="I16">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="J16">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.595688</v>
+        <v>2.583168333333334</v>
       </c>
       <c r="N16">
-        <v>13.787064</v>
+        <v>7.749505</v>
       </c>
       <c r="O16">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="P16">
-        <v>0.05841663420406905</v>
+        <v>0.03015489023401347</v>
       </c>
       <c r="Q16">
-        <v>3.897504951455999</v>
+        <v>0.4264509548694445</v>
       </c>
       <c r="R16">
-        <v>35.07754456310399</v>
+        <v>3.838058593825</v>
       </c>
       <c r="S16">
-        <v>0.01100303232442936</v>
+        <v>0.001055127265413345</v>
       </c>
       <c r="T16">
-        <v>0.01100303232442936</v>
+        <v>0.001055127265413344</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.8480786666666665</v>
+        <v>0.1650883333333333</v>
       </c>
       <c r="H17">
-        <v>2.544236</v>
+        <v>0.495265</v>
       </c>
       <c r="I17">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="J17">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>48.48145033333333</v>
+        <v>46.53090866666667</v>
       </c>
       <c r="N17">
-        <v>145.444351</v>
+        <v>139.592726</v>
       </c>
       <c r="O17">
-        <v>0.6162566192058891</v>
+        <v>0.5431835104302428</v>
       </c>
       <c r="P17">
-        <v>0.6162566192058893</v>
+        <v>0.5431835104302427</v>
       </c>
       <c r="Q17">
-        <v>41.11608375675954</v>
+        <v>7.681710160265556</v>
       </c>
       <c r="R17">
-        <v>370.0447538108359</v>
+        <v>69.13539144239</v>
       </c>
       <c r="S17">
-        <v>0.1160746693754849</v>
+        <v>0.01900612894061935</v>
       </c>
       <c r="T17">
-        <v>0.1160746693754849</v>
+        <v>0.01900612894061934</v>
       </c>
     </row>
   </sheetData>
